--- a/output/Termproject/1G/1D1G.xlsx
+++ b/output/Termproject/1G/1D1G.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\학부연구생\원자로이론\[로이론] TermProject\TermProject\output\Termproject\1G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3880807B-B723-4F5C-9A08-B6E67BD2A19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43453AE6-E832-4A3A-8FCB-7E13EA3F4AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3F2CE17-9C9F-457E-B260-4E26B2C50E75}"/>
   </bookViews>
@@ -850,6 +850,7 @@
         <c:axId val="1642493167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2096,7 +2097,7 @@
   <dimension ref="B1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
